--- a/OWE_Review_IR.xlsx
+++ b/OWE_Review_IR.xlsx
@@ -437,12 +437,12 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>Actuals upto DEC 2021</t>
+          <t>Actuals upto March 2022</t>
         </is>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>Actuals upto DEC 2022</t>
+          <t>Actuals upto March 2023</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
@@ -488,13 +488,13 @@
         </is>
       </c>
       <c r="C4" s="17" t="n">
-        <v>137577126</v>
+        <v>154826156</v>
       </c>
       <c r="D4" s="17" t="n">
-        <v>110580797</v>
+        <v>132667601</v>
       </c>
       <c r="E4" s="17" t="n">
-        <v>116477899</v>
+        <v>154037881</v>
       </c>
       <c r="F4" s="6">
         <f>E4/C4</f>
@@ -536,13 +536,13 @@
         </is>
       </c>
       <c r="C5" s="17" t="n">
-        <v>108887943</v>
+        <v>115316183</v>
       </c>
       <c r="D5" s="17" t="n">
-        <v>79443499</v>
+        <v>106259187</v>
       </c>
       <c r="E5" s="17" t="n">
-        <v>81164104</v>
+        <v>114483638</v>
       </c>
       <c r="F5" s="6">
         <f>E5/C5</f>
@@ -584,13 +584,13 @@
         </is>
       </c>
       <c r="C6" s="17" t="n">
-        <v>189714128</v>
+        <v>200570638</v>
       </c>
       <c r="D6" s="17" t="n">
-        <v>143025095</v>
+        <v>173214118</v>
       </c>
       <c r="E6" s="17" t="n">
-        <v>158540958</v>
+        <v>199706752</v>
       </c>
       <c r="F6" s="6">
         <f>E6/C6</f>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C7" s="17" t="n">
-        <v>56472587</v>
+        <v>64717813</v>
       </c>
       <c r="D7" s="17" t="n">
-        <v>43544909</v>
+        <v>54817648</v>
       </c>
       <c r="E7" s="17" t="n">
-        <v>47634245</v>
+        <v>64471456</v>
       </c>
       <c r="F7" s="6">
         <f>E7/C7</f>
@@ -680,13 +680,13 @@
         </is>
       </c>
       <c r="C8" s="17" t="n">
-        <v>77507330</v>
+        <v>84775616</v>
       </c>
       <c r="D8" s="17" t="n">
-        <v>59054808</v>
+        <v>73919586</v>
       </c>
       <c r="E8" s="17" t="n">
-        <v>66576130</v>
+        <v>84347901</v>
       </c>
       <c r="F8" s="6">
         <f>E8/C8</f>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C9" s="17" t="n">
-        <v>103749468</v>
+        <v>114129376</v>
       </c>
       <c r="D9" s="17" t="n">
-        <v>78795499</v>
+        <v>98113413</v>
       </c>
       <c r="E9" s="17" t="n">
-        <v>84211295</v>
+        <v>113472719</v>
       </c>
       <c r="F9" s="6">
         <f>E9/C9</f>
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="C10" s="17" t="n">
-        <v>99233228</v>
+        <v>97254036</v>
       </c>
       <c r="D10" s="17" t="n">
-        <v>72973565</v>
+        <v>89723983</v>
       </c>
       <c r="E10" s="17" t="n">
-        <v>75438128</v>
+        <v>96898376</v>
       </c>
       <c r="F10" s="6">
         <f>E10/C10</f>
@@ -824,13 +824,13 @@
         </is>
       </c>
       <c r="C11" s="17" t="n">
-        <v>126397712</v>
+        <v>144038233</v>
       </c>
       <c r="D11" s="17" t="n">
-        <v>97311777</v>
+        <v>119135158</v>
       </c>
       <c r="E11" s="17" t="n">
-        <v>113824950</v>
+        <v>143079057</v>
       </c>
       <c r="F11" s="6">
         <f>E11/C11</f>
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="C12" s="17" t="n">
-        <v>136446587</v>
+        <v>153694342</v>
       </c>
       <c r="D12" s="17" t="n">
-        <v>107187192</v>
+        <v>132683880</v>
       </c>
       <c r="E12" s="17" t="n">
-        <v>116333004</v>
+        <v>152734955</v>
       </c>
       <c r="F12" s="6">
         <f>E12/C12</f>
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="C13" s="17" t="n">
-        <v>5168062</v>
+        <v>5306526</v>
       </c>
       <c r="D13" s="17" t="n">
-        <v>3856067</v>
+        <v>4731173</v>
       </c>
       <c r="E13" s="17" t="n">
-        <v>3932582</v>
+        <v>5294025</v>
       </c>
       <c r="F13" s="6">
         <f>E13/C13</f>
@@ -968,13 +968,13 @@
         </is>
       </c>
       <c r="C14" s="17" t="n">
-        <v>116387301</v>
+        <v>133044561</v>
       </c>
       <c r="D14" s="17" t="n">
-        <v>92499289</v>
+        <v>114750692</v>
       </c>
       <c r="E14" s="17" t="n">
-        <v>99192514</v>
+        <v>132472929</v>
       </c>
       <c r="F14" s="6">
         <f>E14/C14</f>
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="C15" s="17" t="n">
-        <v>96533041</v>
+        <v>99977687</v>
       </c>
       <c r="D15" s="17" t="n">
-        <v>75197797</v>
+        <v>89599166</v>
       </c>
       <c r="E15" s="17" t="n">
-        <v>75943068</v>
+        <v>99450158</v>
       </c>
       <c r="F15" s="6">
         <f>E15/C15</f>
@@ -1064,13 +1064,13 @@
         </is>
       </c>
       <c r="C16" s="17" t="n">
-        <v>92511530</v>
+        <v>108905644</v>
       </c>
       <c r="D16" s="17" t="n">
-        <v>75368649</v>
+        <v>92372456</v>
       </c>
       <c r="E16" s="17" t="n">
-        <v>80224019</v>
+        <v>108419418</v>
       </c>
       <c r="F16" s="6">
         <f>E16/C16</f>
@@ -1112,13 +1112,13 @@
         </is>
       </c>
       <c r="C17" s="17" t="n">
-        <v>78159655</v>
+        <v>90981123</v>
       </c>
       <c r="D17" s="17" t="n">
-        <v>60696778</v>
+        <v>78251290</v>
       </c>
       <c r="E17" s="17" t="n">
-        <v>69495770</v>
+        <v>90224007</v>
       </c>
       <c r="F17" s="6">
         <f>E17/C17</f>
@@ -1160,13 +1160,13 @@
         </is>
       </c>
       <c r="C18" s="17" t="n">
-        <v>81542069</v>
+        <v>87393439</v>
       </c>
       <c r="D18" s="17" t="n">
-        <v>59872864</v>
+        <v>73795502</v>
       </c>
       <c r="E18" s="17" t="n">
-        <v>64993565</v>
+        <v>87041893</v>
       </c>
       <c r="F18" s="6">
         <f>E18/C18</f>
@@ -1208,13 +1208,13 @@
         </is>
       </c>
       <c r="C19" s="17" t="n">
-        <v>58550817</v>
+        <v>73005021</v>
       </c>
       <c r="D19" s="17" t="n">
-        <v>46413652</v>
+        <v>60485874</v>
       </c>
       <c r="E19" s="17" t="n">
-        <v>56268484</v>
+        <v>72367230</v>
       </c>
       <c r="F19" s="6">
         <f>E19/C19</f>
@@ -1256,13 +1256,13 @@
         </is>
       </c>
       <c r="C20" s="17" t="n">
-        <v>73683317</v>
+        <v>82063606</v>
       </c>
       <c r="D20" s="17" t="n">
-        <v>57475566</v>
+        <v>70543118</v>
       </c>
       <c r="E20" s="17" t="n">
-        <v>60720672</v>
+        <v>81722978</v>
       </c>
       <c r="F20" s="6">
         <f>E20/C20</f>
@@ -1304,13 +1304,13 @@
         </is>
       </c>
       <c r="C21" s="17" t="n">
-        <v>1638521901</v>
+        <v>1810000000</v>
       </c>
       <c r="D21" s="17" t="n">
-        <v>1263297803</v>
+        <v>1565063844</v>
       </c>
       <c r="E21" s="17" t="n">
-        <v>1370971388</v>
+        <v>1800225374</v>
       </c>
       <c r="F21" s="6">
         <f>E21/C21</f>
